--- a/swings/2021-11-22/GATEIO_SPOT_STEP_USDT.xlsx
+++ b/swings/2021-11-22/GATEIO_SPOT_STEP_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>0.7700600000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -657,6 +666,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -709,6 +719,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -761,6 +772,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -815,6 +827,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O7" t="n">
+        <v>0.8194600000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -867,6 +882,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -919,6 +935,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -973,6 +990,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O10" t="n">
+        <v>0.77898</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1025,6 +1045,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1077,6 +1098,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1131,6 +1153,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O13" t="n">
+        <v>0.8119200000000001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1183,6 +1208,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1235,6 +1261,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1289,6 +1316,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1341,6 +1371,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1395,6 +1426,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O18" t="n">
+        <v>0.8059000000000001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1447,6 +1481,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1499,6 +1534,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1551,6 +1587,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1603,6 +1640,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1657,6 +1695,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>0.7501100000000001</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1711,6 +1752,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O24" t="n">
+        <v>0.78385</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1763,6 +1807,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1817,6 +1862,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>0.7612000000000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1869,6 +1917,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1923,6 +1972,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O28" t="n">
+        <v>0.7827200000000001</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1975,6 +2027,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2027,6 +2080,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2079,6 +2133,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2133,6 +2188,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O32" t="n">
+        <v>0.7455700000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2187,6 +2245,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>0.76326</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2241,6 +2302,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O34" t="n">
+        <v>0.7531500000000001</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2293,6 +2357,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2345,6 +2410,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2397,6 +2463,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2449,6 +2516,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2503,6 +2571,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O39" t="n">
+        <v>0.78117</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2555,6 +2626,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2609,6 +2681,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O41" t="n">
+        <v>0.7650800000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2661,6 +2736,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2713,6 +2789,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2767,6 +2844,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O44" t="n">
+        <v>0.7859400000000001</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2821,6 +2901,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>0.77437</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2873,6 +2956,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2925,6 +3009,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2979,6 +3064,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O48" t="n">
+        <v>0.79537</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3031,6 +3119,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3085,6 +3174,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O50" t="n">
+        <v>0.76732</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3139,6 +3231,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O51" t="n">
+        <v>0.79186</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3193,6 +3288,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O52" t="n">
+        <v>0.7861800000000001</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3245,6 +3343,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3299,6 +3398,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O54" t="n">
+        <v>0.79949</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3353,6 +3455,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O55" t="n">
+        <v>0.78273</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3405,6 +3510,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3459,6 +3565,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>0.8013400000000001</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3511,6 +3620,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3563,6 +3673,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3615,6 +3726,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3667,6 +3779,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3721,6 +3834,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>0.7764000000000001</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3775,6 +3891,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>0.79388</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3827,6 +3946,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3879,6 +3999,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3933,6 +4054,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O66" t="n">
+        <v>0.77688</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3987,6 +4111,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O67" t="n">
+        <v>0.81103</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4041,6 +4168,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O68" t="n">
+        <v>0.78503</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4093,6 +4223,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4147,6 +4278,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O70" t="n">
+        <v>0.80905</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4201,6 +4335,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O71" t="n">
+        <v>0.74475</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4255,6 +4392,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O72" t="n">
+        <v>0.7863500000000001</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4307,6 +4447,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4361,6 +4502,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O74" t="n">
+        <v>0.76446</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4415,6 +4559,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O75" t="n">
+        <v>0.77559</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4469,6 +4616,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O76" t="n">
+        <v>0.76532</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4523,6 +4673,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>0.7863500000000001</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4575,6 +4728,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4627,6 +4781,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4679,6 +4834,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4733,6 +4889,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O81" t="n">
+        <v>0.73751</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4785,6 +4944,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4839,6 +4999,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O83" t="n">
+        <v>0.76336</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4891,6 +5054,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4945,6 +5109,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O85" t="n">
+        <v>0.74295</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4999,6 +5166,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>0.752</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5053,6 +5223,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O87" t="n">
+        <v>0.7400100000000001</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5105,6 +5278,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5159,6 +5333,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O89" t="n">
+        <v>0.7512500000000001</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5211,6 +5388,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5265,6 +5443,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O91" t="n">
+        <v>0.74102</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5319,6 +5500,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>0.7464000000000001</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5373,6 +5557,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>0.7350000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5427,6 +5614,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O94" t="n">
+        <v>0.74795</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5481,6 +5671,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>0.73846</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5535,6 +5728,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O96" t="n">
+        <v>0.74226</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5587,6 +5783,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5639,6 +5836,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5693,6 +5891,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>0.7286</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5747,6 +5948,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O100" t="n">
+        <v>0.7358800000000001</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5801,6 +6005,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O101" t="n">
+        <v>0.7300000000000001</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5853,6 +6060,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5905,6 +6113,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5959,6 +6168,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O104" t="n">
+        <v>0.7366</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6013,6 +6225,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O105" t="n">
+        <v>0.7278100000000001</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6065,6 +6280,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6119,6 +6335,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O107" t="n">
+        <v>0.7336600000000001</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6171,6 +6390,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6225,6 +6445,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O109" t="n">
+        <v>0.7197</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6279,6 +6502,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O110" t="n">
+        <v>0.72999</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6333,6 +6559,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O111" t="n">
+        <v>0.7197</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6387,6 +6616,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O112" t="n">
+        <v>0.7297400000000001</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6441,6 +6673,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O113" t="n">
+        <v>0.7188600000000001</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6493,6 +6728,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6547,6 +6783,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O115" t="n">
+        <v>0.73126</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6601,6 +6840,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>0.71187</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6655,6 +6897,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O117" t="n">
+        <v>0.7246400000000001</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6707,6 +6952,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6761,6 +7007,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O119" t="n">
+        <v>0.6945600000000001</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6815,6 +7064,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O120" t="n">
+        <v>0.7069300000000001</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6867,6 +7119,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6919,6 +7172,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6971,6 +7225,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7023,6 +7278,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7077,6 +7333,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O125" t="n">
+        <v>0.6725800000000001</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7131,6 +7390,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O126" t="n">
+        <v>0.67876</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7185,6 +7447,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O127" t="n">
+        <v>0.663</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7239,6 +7504,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>0.67654</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7293,6 +7561,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O129" t="n">
+        <v>0.65852</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7345,6 +7616,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7397,6 +7669,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7451,6 +7724,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O132" t="n">
+        <v>0.6862600000000001</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7503,6 +7779,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7557,6 +7834,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>0.66791</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7611,6 +7891,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O135" t="n">
+        <v>0.67791</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7665,6 +7948,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O136" t="n">
+        <v>0.66988</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7717,6 +8003,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7769,6 +8056,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7823,6 +8111,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O139" t="n">
+        <v>0.6953900000000001</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7875,6 +8166,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7927,6 +8219,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7981,6 +8274,9 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O142" t="n">
+        <v>0.67342</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8033,6 +8329,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8085,6 +8382,7 @@
           <t>STEPUSD</t>
         </is>
       </c>
+      <c r="O144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8138,6 +8436,9 @@
         <is>
           <t>STEPUSD</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>0.68383</v>
       </c>
     </row>
   </sheetData>
